--- a/work/任务表.xlsx
+++ b/work/任务表.xlsx
@@ -48,6 +48,9 @@
     <t>战队荣誉</t>
   </si>
   <si>
+    <t>张旭威</t>
+  </si>
+  <si>
     <t>战队成员</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
   </si>
   <si>
     <t>首页</t>
-  </si>
-  <si>
-    <t>张旭威</t>
   </si>
   <si>
     <t>登录</t>
@@ -152,10 +152,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -174,7 +174,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,105 +302,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -326,6 +326,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,126 +471,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,30 +517,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,6 +531,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,6 +594,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -625,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,133 +637,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1176,77 +1176,89 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="3:3">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="3:5">
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="3:5">
@@ -1329,7 +1341,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1339,10 +1351,16 @@
       <c r="C24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="3:3">
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
       <c r="C25" t="s">
         <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3">
